--- a/data/pca/factorExposure/factorExposure_2011-03-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-03-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.008388646040179968</v>
+        <v>-0.01284759215095025</v>
       </c>
       <c r="C2">
-        <v>-0.0005320157803385252</v>
+        <v>0.006568999849651817</v>
       </c>
       <c r="D2">
-        <v>-0.03992904285153926</v>
+        <v>-0.007874825013023182</v>
       </c>
       <c r="E2">
-        <v>-0.005268576509718393</v>
+        <v>0.001314437756855404</v>
       </c>
       <c r="F2">
-        <v>0.001624841653504691</v>
+        <v>0.03102089157423076</v>
       </c>
       <c r="G2">
-        <v>0.011425620611756</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.002849138436796179</v>
+      </c>
+      <c r="H2">
+        <v>0.006974087277556478</v>
+      </c>
+      <c r="I2">
+        <v>0.000191509031510963</v>
+      </c>
+      <c r="J2">
+        <v>0.02116354229534925</v>
+      </c>
+      <c r="K2">
+        <v>0.06644753413224005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.1060868622457452</v>
+        <v>-0.1193322898623852</v>
       </c>
       <c r="C4">
-        <v>-0.02413358597698021</v>
+        <v>0.0545454669184013</v>
       </c>
       <c r="D4">
-        <v>-0.05664505111919957</v>
+        <v>-0.0001542658451474145</v>
       </c>
       <c r="E4">
-        <v>-0.05756276307344019</v>
+        <v>0.002740899359031324</v>
       </c>
       <c r="F4">
-        <v>-0.03989577090215401</v>
+        <v>0.01988225170998215</v>
       </c>
       <c r="G4">
-        <v>0.02591897545213448</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.06824887212504904</v>
+      </c>
+      <c r="H4">
+        <v>0.1265517834329906</v>
+      </c>
+      <c r="I4">
+        <v>0.09253367078431986</v>
+      </c>
+      <c r="J4">
+        <v>-0.008258078989489227</v>
+      </c>
+      <c r="K4">
+        <v>-0.01153116170796942</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.1296117107891592</v>
+        <v>-0.1249675436806449</v>
       </c>
       <c r="C6">
-        <v>-0.02528463081567724</v>
+        <v>0.005544666995193546</v>
       </c>
       <c r="D6">
-        <v>-0.01422191489611001</v>
+        <v>-0.007358010939988471</v>
       </c>
       <c r="E6">
-        <v>-0.00677471807632291</v>
+        <v>0.02878371174626126</v>
       </c>
       <c r="F6">
-        <v>0.1796320056994443</v>
+        <v>-0.02147841211187517</v>
       </c>
       <c r="G6">
-        <v>-0.1267065522551244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.05729595489939512</v>
+      </c>
+      <c r="H6">
+        <v>0.04226879850727031</v>
+      </c>
+      <c r="I6">
+        <v>0.004486752800950613</v>
+      </c>
+      <c r="J6">
+        <v>-0.2744690846050171</v>
+      </c>
+      <c r="K6">
+        <v>-0.2633060856637907</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.08916201908929836</v>
+        <v>-0.07987370670411943</v>
       </c>
       <c r="C7">
-        <v>-0.03754449613906368</v>
+        <v>0.05708524804240499</v>
       </c>
       <c r="D7">
-        <v>-0.0523950603721298</v>
+        <v>-0.02177524421025544</v>
       </c>
       <c r="E7">
-        <v>-0.01729780701773641</v>
+        <v>0.009970598875745328</v>
       </c>
       <c r="F7">
-        <v>0.01583509543875334</v>
+        <v>0.04611832893879349</v>
       </c>
       <c r="G7">
-        <v>0.01496416901105246</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.01062824742424075</v>
+      </c>
+      <c r="H7">
+        <v>0.04233059440143382</v>
+      </c>
+      <c r="I7">
+        <v>0.009196164952926628</v>
+      </c>
+      <c r="J7">
+        <v>0.03628047965230435</v>
+      </c>
+      <c r="K7">
+        <v>0.004542592659789633</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.04128502724945818</v>
+        <v>-0.05354516764348274</v>
       </c>
       <c r="C8">
-        <v>0.03093622834105497</v>
+        <v>0.01476888099166121</v>
       </c>
       <c r="D8">
-        <v>-0.08488914547110428</v>
+        <v>-0.01736244551310723</v>
       </c>
       <c r="E8">
-        <v>-0.08863008412589583</v>
+        <v>-0.001550508101576321</v>
       </c>
       <c r="F8">
-        <v>-0.008739358548204713</v>
+        <v>0.009062572711439643</v>
       </c>
       <c r="G8">
-        <v>0.1347920324314741</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.08338376285834669</v>
+      </c>
+      <c r="H8">
+        <v>0.1225726787570175</v>
+      </c>
+      <c r="I8">
+        <v>0.03327458489779211</v>
+      </c>
+      <c r="J8">
+        <v>-0.02667114640690937</v>
+      </c>
+      <c r="K8">
+        <v>-0.01070978304594339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.09370085751691419</v>
+        <v>-0.08952968109289333</v>
       </c>
       <c r="C9">
-        <v>-0.03944492410414366</v>
+        <v>0.05136233846323371</v>
       </c>
       <c r="D9">
-        <v>-0.04302887136780158</v>
+        <v>-0.005897426979025555</v>
       </c>
       <c r="E9">
-        <v>-0.04606407672173352</v>
+        <v>-0.00452095573091878</v>
       </c>
       <c r="F9">
-        <v>-0.01993851708318763</v>
+        <v>0.02234849486622657</v>
       </c>
       <c r="G9">
-        <v>0.07456269090282518</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.05433253801956398</v>
+      </c>
+      <c r="H9">
+        <v>0.1164730582113514</v>
+      </c>
+      <c r="I9">
+        <v>0.02730062635376191</v>
+      </c>
+      <c r="J9">
+        <v>0.00935963652668987</v>
+      </c>
+      <c r="K9">
+        <v>-0.01274288600793269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.03875226067691073</v>
+        <v>-0.08376679120784959</v>
       </c>
       <c r="C10">
-        <v>0.1704429220726122</v>
+        <v>-0.180552860461103</v>
       </c>
       <c r="D10">
-        <v>-0.07884273068412617</v>
+        <v>0.02366130584656578</v>
       </c>
       <c r="E10">
-        <v>-0.01846398321627188</v>
+        <v>0.003080461157444626</v>
       </c>
       <c r="F10">
-        <v>0.0301171258947645</v>
+        <v>0.05843833871203397</v>
       </c>
       <c r="G10">
-        <v>0.005522938364105845</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.00833414173884656</v>
+      </c>
+      <c r="H10">
+        <v>-0.009274824753700504</v>
+      </c>
+      <c r="I10">
+        <v>0.01747102112494145</v>
+      </c>
+      <c r="J10">
+        <v>-0.00465899567541502</v>
+      </c>
+      <c r="K10">
+        <v>-0.0344102517420966</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.0762517670890549</v>
+        <v>-0.08147842505762139</v>
       </c>
       <c r="C11">
-        <v>-0.06129201147217146</v>
+        <v>0.05818478332907314</v>
       </c>
       <c r="D11">
-        <v>-0.01932403549496771</v>
+        <v>-0.01523801314550319</v>
       </c>
       <c r="E11">
-        <v>0.01473678490327938</v>
+        <v>-0.0260751227693591</v>
       </c>
       <c r="F11">
-        <v>-0.005609980927155231</v>
+        <v>-9.239828043707726e-06</v>
       </c>
       <c r="G11">
-        <v>0.1631587137021068</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.04831915750596753</v>
+      </c>
+      <c r="H11">
+        <v>0.1242916062254941</v>
+      </c>
+      <c r="I11">
+        <v>-0.04589302067442955</v>
+      </c>
+      <c r="J11">
+        <v>0.05688640627467056</v>
+      </c>
+      <c r="K11">
+        <v>0.05892012454438396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.07267364651483067</v>
+        <v>-0.0833678697668576</v>
       </c>
       <c r="C12">
-        <v>-0.04203897075573909</v>
+        <v>0.06676949171780128</v>
       </c>
       <c r="D12">
-        <v>-0.01808029371675684</v>
+        <v>-0.02712864726142685</v>
       </c>
       <c r="E12">
-        <v>-0.0255091402735629</v>
+        <v>-0.04997943588243094</v>
       </c>
       <c r="F12">
-        <v>0.008342559937722135</v>
+        <v>0.01313771389079676</v>
       </c>
       <c r="G12">
-        <v>0.1437663903136844</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.06302625945757281</v>
+      </c>
+      <c r="H12">
+        <v>0.1145455505424309</v>
+      </c>
+      <c r="I12">
+        <v>-0.05666934263214342</v>
+      </c>
+      <c r="J12">
+        <v>0.033869558120139</v>
+      </c>
+      <c r="K12">
+        <v>0.05542692544476797</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.06309350093793571</v>
+        <v>-0.04187472614258687</v>
       </c>
       <c r="C13">
-        <v>-0.007911170960216084</v>
+        <v>0.02389316336229655</v>
       </c>
       <c r="D13">
-        <v>-0.01866983954184724</v>
+        <v>-0.01113521440885593</v>
       </c>
       <c r="E13">
-        <v>-0.02101088871968394</v>
+        <v>0.02014672691553885</v>
       </c>
       <c r="F13">
-        <v>-0.05423237905033909</v>
+        <v>0.0178383108412934</v>
       </c>
       <c r="G13">
-        <v>0.05101993608150864</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.04301809114886519</v>
+      </c>
+      <c r="H13">
+        <v>0.05181219192499217</v>
+      </c>
+      <c r="I13">
+        <v>0.01718172187864724</v>
+      </c>
+      <c r="J13">
+        <v>-0.03697158072938402</v>
+      </c>
+      <c r="K13">
+        <v>-0.04167271723976183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.05120291164458769</v>
+        <v>-0.03640414236991772</v>
       </c>
       <c r="C14">
-        <v>-0.008256285915585608</v>
+        <v>0.008123747467121526</v>
       </c>
       <c r="D14">
-        <v>-0.06221169099703126</v>
+        <v>0.01374031276570661</v>
       </c>
       <c r="E14">
-        <v>-0.02306679327667944</v>
+        <v>-0.01306411608096705</v>
       </c>
       <c r="F14">
-        <v>-0.02410451662887587</v>
+        <v>0.007900751301225625</v>
       </c>
       <c r="G14">
-        <v>0.04682969256999711</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.04160004682829696</v>
+      </c>
+      <c r="H14">
+        <v>0.05615617505367129</v>
+      </c>
+      <c r="I14">
+        <v>0.05701987113418061</v>
+      </c>
+      <c r="J14">
+        <v>0.03468598712963135</v>
+      </c>
+      <c r="K14">
+        <v>-0.09395228105087472</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.03505515692177147</v>
+        <v>-0.02226036185591642</v>
       </c>
       <c r="C15">
-        <v>0.009542291733150772</v>
+        <v>0.003108126426062242</v>
       </c>
       <c r="D15">
-        <v>-0.01789698606458661</v>
+        <v>-0.003975797574485334</v>
       </c>
       <c r="E15">
-        <v>-0.004890283517127847</v>
+        <v>0.03585172109118239</v>
       </c>
       <c r="F15">
-        <v>-0.00534934250117779</v>
+        <v>0.01659246238231469</v>
       </c>
       <c r="G15">
-        <v>0.02122913009948934</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.01085575522674988</v>
+      </c>
+      <c r="H15">
+        <v>0.009868274472505606</v>
+      </c>
+      <c r="I15">
+        <v>0.01627420829987009</v>
+      </c>
+      <c r="J15">
+        <v>-0.003962684687264828</v>
+      </c>
+      <c r="K15">
+        <v>-0.05730258043585244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.08009044212256537</v>
+        <v>-0.08937077997121205</v>
       </c>
       <c r="C16">
-        <v>-0.06996751271686533</v>
+        <v>0.06811298335815667</v>
       </c>
       <c r="D16">
-        <v>-0.02838248611050328</v>
+        <v>-0.02095062859759542</v>
       </c>
       <c r="E16">
-        <v>-0.02556502443795119</v>
+        <v>-0.02916688611124215</v>
       </c>
       <c r="F16">
-        <v>-0.04617194627508203</v>
+        <v>0.006042579335595407</v>
       </c>
       <c r="G16">
-        <v>0.1206699476959885</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.07265829505349107</v>
+      </c>
+      <c r="H16">
+        <v>0.1114663533019618</v>
+      </c>
+      <c r="I16">
+        <v>-0.07450046031405402</v>
+      </c>
+      <c r="J16">
+        <v>0.08288874877609632</v>
+      </c>
+      <c r="K16">
+        <v>0.05929197534233101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.05318715981719605</v>
+        <v>-0.05093342697871099</v>
       </c>
       <c r="C20">
-        <v>-0.02003271144878217</v>
+        <v>0.03298438419926379</v>
       </c>
       <c r="D20">
-        <v>-0.02522689692992067</v>
+        <v>0.01806651434609819</v>
       </c>
       <c r="E20">
-        <v>-0.01420273133636336</v>
+        <v>0.01308481673004594</v>
       </c>
       <c r="F20">
-        <v>-0.009010276099519262</v>
+        <v>0.01528343599007055</v>
       </c>
       <c r="G20">
-        <v>0.1125105465661847</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.03156539608205451</v>
+      </c>
+      <c r="H20">
+        <v>0.05709474858069749</v>
+      </c>
+      <c r="I20">
+        <v>0.005978961746800266</v>
+      </c>
+      <c r="J20">
+        <v>0.02900355423127506</v>
+      </c>
+      <c r="K20">
+        <v>-0.04128156305499418</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.02646643797580388</v>
+        <v>-0.02969118866263356</v>
       </c>
       <c r="C21">
-        <v>-0.04012985927679542</v>
+        <v>0.0105186542466198</v>
       </c>
       <c r="D21">
-        <v>-0.002832034406198758</v>
+        <v>0.03358638585059776</v>
       </c>
       <c r="E21">
-        <v>-0.01616171483543081</v>
+        <v>0.004527571937347617</v>
       </c>
       <c r="F21">
-        <v>0.07354852407298615</v>
+        <v>-0.01598757774060164</v>
       </c>
       <c r="G21">
-        <v>-0.08056991106055456</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.03436724430282107</v>
+      </c>
+      <c r="H21">
+        <v>0.06767927433070386</v>
+      </c>
+      <c r="I21">
+        <v>0.04258291445150048</v>
+      </c>
+      <c r="J21">
+        <v>-0.03427172044266643</v>
+      </c>
+      <c r="K21">
+        <v>-0.0214287699251971</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.04304132139709609</v>
+        <v>-0.03526090476115135</v>
       </c>
       <c r="C22">
-        <v>-0.02144863236090314</v>
+        <v>-0.004244593681490788</v>
       </c>
       <c r="D22">
-        <v>-0.001742047947039774</v>
+        <v>-0.06613411751539461</v>
       </c>
       <c r="E22">
-        <v>-0.5577217287512384</v>
+        <v>0.6207053196503883</v>
       </c>
       <c r="F22">
-        <v>-0.1310031872975059</v>
+        <v>0.1690335901877141</v>
       </c>
       <c r="G22">
-        <v>-0.3135795798842144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.1466344133137261</v>
+      </c>
+      <c r="H22">
+        <v>-0.1171451673931173</v>
+      </c>
+      <c r="I22">
+        <v>-0.08101263576628032</v>
+      </c>
+      <c r="J22">
+        <v>0.01277952088078739</v>
+      </c>
+      <c r="K22">
+        <v>0.06513019182711782</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.04315038489154593</v>
+        <v>-0.03546112964371502</v>
       </c>
       <c r="C23">
-        <v>-0.02189752560039551</v>
+        <v>-0.003819331601707489</v>
       </c>
       <c r="D23">
-        <v>-0.003455577234797609</v>
+        <v>-0.06716448719004897</v>
       </c>
       <c r="E23">
-        <v>-0.5566539785948438</v>
+        <v>0.6229175756112758</v>
       </c>
       <c r="F23">
-        <v>-0.1315164320060841</v>
+        <v>0.1694004510167707</v>
       </c>
       <c r="G23">
-        <v>-0.3144863040076271</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.1473258464521443</v>
+      </c>
+      <c r="H23">
+        <v>-0.1132860918087963</v>
+      </c>
+      <c r="I23">
+        <v>-0.08112387860655423</v>
+      </c>
+      <c r="J23">
+        <v>0.01405908254051724</v>
+      </c>
+      <c r="K23">
+        <v>0.0619761223048547</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.08421865131306706</v>
+        <v>-0.09017622934023589</v>
       </c>
       <c r="C24">
-        <v>-0.05071077854797752</v>
+        <v>0.0595900887419759</v>
       </c>
       <c r="D24">
-        <v>-0.03574005631131479</v>
+        <v>-0.006721093123415092</v>
       </c>
       <c r="E24">
-        <v>-0.02625858914338091</v>
+        <v>-0.02425996858973954</v>
       </c>
       <c r="F24">
-        <v>-0.002753180955689367</v>
+        <v>0.01249049025672917</v>
       </c>
       <c r="G24">
-        <v>0.1237845516093194</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.05696520122201688</v>
+      </c>
+      <c r="H24">
+        <v>0.1135220397126273</v>
+      </c>
+      <c r="I24">
+        <v>-0.08883610789830176</v>
+      </c>
+      <c r="J24">
+        <v>0.07322802011031686</v>
+      </c>
+      <c r="K24">
+        <v>0.05209198061886746</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.07601630019772834</v>
+        <v>-0.09136072670417866</v>
       </c>
       <c r="C25">
-        <v>-0.02373913864259142</v>
+        <v>0.04200649234007761</v>
       </c>
       <c r="D25">
-        <v>-0.03442505830585475</v>
+        <v>-0.0204049478750291</v>
       </c>
       <c r="E25">
-        <v>-0.02330784038026656</v>
+        <v>-0.05509828845440507</v>
       </c>
       <c r="F25">
-        <v>0.005880520583826913</v>
+        <v>0.01518763963039731</v>
       </c>
       <c r="G25">
-        <v>0.1142038812629759</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.0728606356778012</v>
+      </c>
+      <c r="H25">
+        <v>0.09650408363659298</v>
+      </c>
+      <c r="I25">
+        <v>-0.03997205696920109</v>
+      </c>
+      <c r="J25">
+        <v>0.06161292632390712</v>
+      </c>
+      <c r="K25">
+        <v>0.04366153445107708</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.05109067582922596</v>
+        <v>-0.03994960607489074</v>
       </c>
       <c r="C26">
-        <v>-0.02496521370721347</v>
+        <v>-0.008259677154531051</v>
       </c>
       <c r="D26">
-        <v>-0.03914868865576082</v>
+        <v>0.01976038810626152</v>
       </c>
       <c r="E26">
-        <v>-0.006033406542460252</v>
+        <v>0.01541725227647337</v>
       </c>
       <c r="F26">
-        <v>-0.02285098878108446</v>
+        <v>-0.01468725787368542</v>
       </c>
       <c r="G26">
-        <v>0.06418872867167241</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03412132784453891</v>
+      </c>
+      <c r="H26">
+        <v>0.04151585317447296</v>
+      </c>
+      <c r="I26">
+        <v>0.0143320699246756</v>
+      </c>
+      <c r="J26">
+        <v>0.02763708317701983</v>
+      </c>
+      <c r="K26">
+        <v>-0.07822844152103316</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.06224596275780177</v>
+        <v>-0.09229064645867958</v>
       </c>
       <c r="C28">
-        <v>0.3036877218213741</v>
+        <v>-0.3202748413445686</v>
       </c>
       <c r="D28">
-        <v>-0.02951421821963493</v>
+        <v>-0.02011942741619782</v>
       </c>
       <c r="E28">
-        <v>0.01681779299521002</v>
+        <v>-0.02099152791843493</v>
       </c>
       <c r="F28">
-        <v>0.05227149028912875</v>
+        <v>0.006594018771949353</v>
       </c>
       <c r="G28">
-        <v>-0.02022410743986178</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02522846236059113</v>
+      </c>
+      <c r="H28">
+        <v>0.02300241962637696</v>
+      </c>
+      <c r="I28">
+        <v>-0.01033825295273382</v>
+      </c>
+      <c r="J28">
+        <v>-0.02129151537741903</v>
+      </c>
+      <c r="K28">
+        <v>0.007794259671695438</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.05896163875714595</v>
+        <v>-0.03747162418213834</v>
       </c>
       <c r="C29">
-        <v>-0.003766699735037161</v>
+        <v>0.006975568196495301</v>
       </c>
       <c r="D29">
-        <v>-0.03262203677322298</v>
+        <v>0.001210289756053019</v>
       </c>
       <c r="E29">
-        <v>-0.04091884616639532</v>
+        <v>-0.01649314608539335</v>
       </c>
       <c r="F29">
-        <v>-0.03201177212227648</v>
+        <v>0.02242247191516659</v>
       </c>
       <c r="G29">
-        <v>0.04295690029267349</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.07627144191471152</v>
+      </c>
+      <c r="H29">
+        <v>0.05232401038142134</v>
+      </c>
+      <c r="I29">
+        <v>0.01758514410441406</v>
+      </c>
+      <c r="J29">
+        <v>0.04253616987551509</v>
+      </c>
+      <c r="K29">
+        <v>-0.09478372683562966</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.1143514731546352</v>
+        <v>-0.1095127679815002</v>
       </c>
       <c r="C30">
-        <v>0.02323251588645104</v>
+        <v>0.07297891821929123</v>
       </c>
       <c r="D30">
-        <v>-0.07665808272839979</v>
+        <v>-0.0468799695981336</v>
       </c>
       <c r="E30">
-        <v>-0.212971620080682</v>
+        <v>-0.009212133189933249</v>
       </c>
       <c r="F30">
-        <v>0.08580590938983174</v>
+        <v>-0.01688777225414029</v>
       </c>
       <c r="G30">
-        <v>0.153121082561139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.1664808047372795</v>
+      </c>
+      <c r="H30">
+        <v>0.1645696957036166</v>
+      </c>
+      <c r="I30">
+        <v>-0.1336546596490012</v>
+      </c>
+      <c r="J30">
+        <v>-0.2105850861547654</v>
+      </c>
+      <c r="K30">
+        <v>0.119972840344304</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.05710460730736941</v>
+        <v>-0.03758184268186465</v>
       </c>
       <c r="C31">
-        <v>-0.02033722909988724</v>
+        <v>0.02564749391872789</v>
       </c>
       <c r="D31">
-        <v>0.008657164907237395</v>
+        <v>0.0002451223782732739</v>
       </c>
       <c r="E31">
-        <v>-0.006949942277143871</v>
+        <v>0.005485140204693303</v>
       </c>
       <c r="F31">
-        <v>-0.04189384600875865</v>
+        <v>-0.0005123638300171953</v>
       </c>
       <c r="G31">
-        <v>0.0092424036895144</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.009080051793288975</v>
+      </c>
+      <c r="H31">
+        <v>0.02461932581345855</v>
+      </c>
+      <c r="I31">
+        <v>0.01171510095026409</v>
+      </c>
+      <c r="J31">
+        <v>0.05252923339542442</v>
+      </c>
+      <c r="K31">
+        <v>-0.05799621538402249</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.03620232668629043</v>
+        <v>-0.0554950677992152</v>
       </c>
       <c r="C32">
-        <v>0.01530586207438803</v>
+        <v>0.005793381338241521</v>
       </c>
       <c r="D32">
-        <v>-0.01016158027993794</v>
+        <v>0.01261435046403747</v>
       </c>
       <c r="E32">
-        <v>-0.0923217840602136</v>
+        <v>-0.03414881815848785</v>
       </c>
       <c r="F32">
-        <v>-0.1312281078995128</v>
+        <v>-0.04858676082213765</v>
       </c>
       <c r="G32">
-        <v>0.03842148787484537</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.02334677121226192</v>
+      </c>
+      <c r="H32">
+        <v>0.04079189364883865</v>
+      </c>
+      <c r="I32">
+        <v>0.002128461866969169</v>
+      </c>
+      <c r="J32">
+        <v>-0.00783139425556955</v>
+      </c>
+      <c r="K32">
+        <v>0.009757733604168119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.1112370461264098</v>
+        <v>-0.1023837888944514</v>
       </c>
       <c r="C33">
-        <v>-0.01662355006897809</v>
+        <v>0.04930015628040298</v>
       </c>
       <c r="D33">
-        <v>0.007126755433635483</v>
+        <v>-0.06487708478416811</v>
       </c>
       <c r="E33">
-        <v>-0.0127037032462562</v>
+        <v>-0.02269228823624773</v>
       </c>
       <c r="F33">
-        <v>-0.03065558034304218</v>
+        <v>0.006329664659466557</v>
       </c>
       <c r="G33">
-        <v>0.0689707645770901</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.02195977777732456</v>
+      </c>
+      <c r="H33">
+        <v>0.05941068078959594</v>
+      </c>
+      <c r="I33">
+        <v>-0.008933057056207418</v>
+      </c>
+      <c r="J33">
+        <v>0.03341040810272771</v>
+      </c>
+      <c r="K33">
+        <v>-0.009362292826910399</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.06706606549269493</v>
+        <v>-0.07491540485945399</v>
       </c>
       <c r="C34">
-        <v>-0.04491059824412681</v>
+        <v>0.05125129741097378</v>
       </c>
       <c r="D34">
-        <v>-0.01691759899864743</v>
+        <v>-0.01413418592978364</v>
       </c>
       <c r="E34">
-        <v>-0.007912071744821791</v>
+        <v>-0.02721737819058511</v>
       </c>
       <c r="F34">
-        <v>-0.02905227433409517</v>
+        <v>0.005374891726843203</v>
       </c>
       <c r="G34">
-        <v>0.0940650699026974</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.06489254317064004</v>
+      </c>
+      <c r="H34">
+        <v>0.1088127775948144</v>
+      </c>
+      <c r="I34">
+        <v>-0.04652115008464189</v>
+      </c>
+      <c r="J34">
+        <v>0.06480047424927261</v>
+      </c>
+      <c r="K34">
+        <v>0.03964730003916841</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.04352458975689549</v>
+        <v>-0.02086645539411522</v>
       </c>
       <c r="C35">
-        <v>-0.009496771742691283</v>
+        <v>0.01297928734328906</v>
       </c>
       <c r="D35">
-        <v>0.00989444577073711</v>
+        <v>-0.003979232190835449</v>
       </c>
       <c r="E35">
-        <v>-0.007005336661423065</v>
+        <v>-0.006884422910845362</v>
       </c>
       <c r="F35">
-        <v>0.04237314034547976</v>
+        <v>0.005703515052051315</v>
       </c>
       <c r="G35">
-        <v>0.04467842307152271</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.05302906498522655</v>
+      </c>
+      <c r="H35">
+        <v>0.01994795834388282</v>
+      </c>
+      <c r="I35">
+        <v>0.02944000813374867</v>
+      </c>
+      <c r="J35">
+        <v>0.01690454611433568</v>
+      </c>
+      <c r="K35">
+        <v>-0.00782986048038232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.0382600590608483</v>
+        <v>-0.03180895943830123</v>
       </c>
       <c r="C36">
-        <v>-0.002753018782539331</v>
+        <v>0.006060751181530322</v>
       </c>
       <c r="D36">
-        <v>-0.01710614142414303</v>
+        <v>-0.003109521718316548</v>
       </c>
       <c r="E36">
-        <v>-0.03960042812741665</v>
+        <v>0.01059262838977819</v>
       </c>
       <c r="F36">
-        <v>-0.003585668723895364</v>
+        <v>-0.007992375304493012</v>
       </c>
       <c r="G36">
-        <v>0.05801148824893866</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.03606299488305761</v>
+      </c>
+      <c r="H36">
+        <v>0.05923765045429235</v>
+      </c>
+      <c r="I36">
+        <v>-0.005377160379064232</v>
+      </c>
+      <c r="J36">
+        <v>0.02896875290311629</v>
+      </c>
+      <c r="K36">
+        <v>-0.04198310890778448</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.05698757348386214</v>
+        <v>-0.0210758629902496</v>
       </c>
       <c r="C38">
-        <v>-0.0159512582490046</v>
+        <v>0.01555017210715735</v>
       </c>
       <c r="D38">
-        <v>-0.006059529230294213</v>
+        <v>-0.01000411738352859</v>
       </c>
       <c r="E38">
-        <v>-0.002260562708467605</v>
+        <v>0.01825998340147905</v>
       </c>
       <c r="F38">
-        <v>-0.02427102174781634</v>
+        <v>0.01581327993732144</v>
       </c>
       <c r="G38">
-        <v>0.0576908406781238</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.01093240258003816</v>
+      </c>
+      <c r="H38">
+        <v>-0.04121274417037341</v>
+      </c>
+      <c r="I38">
+        <v>-0.001159810953989449</v>
+      </c>
+      <c r="J38">
+        <v>-0.01396364430653327</v>
+      </c>
+      <c r="K38">
+        <v>-0.05696450987292865</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.1074977175177662</v>
+        <v>-0.1267081763832966</v>
       </c>
       <c r="C39">
-        <v>-0.04187881021387183</v>
+        <v>0.0857900842466193</v>
       </c>
       <c r="D39">
-        <v>-0.02099030702609118</v>
+        <v>-0.04210610331304786</v>
       </c>
       <c r="E39">
-        <v>-0.06899278651113315</v>
+        <v>-0.1050190860253936</v>
       </c>
       <c r="F39">
-        <v>-0.006046275999728324</v>
+        <v>0.003062943174866313</v>
       </c>
       <c r="G39">
-        <v>0.1459252490383445</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.1039006623207066</v>
+      </c>
+      <c r="H39">
+        <v>0.08995891227978506</v>
+      </c>
+      <c r="I39">
+        <v>-0.08017507244077776</v>
+      </c>
+      <c r="J39">
+        <v>0.08541569411752417</v>
+      </c>
+      <c r="K39">
+        <v>0.1395482376171644</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.05078692456701017</v>
+        <v>-0.01823899224474588</v>
       </c>
       <c r="C40">
-        <v>-0.02534806089183703</v>
+        <v>0.02933885216744821</v>
       </c>
       <c r="D40">
-        <v>0.008386516454885615</v>
+        <v>0.008888850089763624</v>
       </c>
       <c r="E40">
-        <v>-0.1023486920641554</v>
+        <v>0.06591276280449147</v>
       </c>
       <c r="F40">
-        <v>0.03899186624450419</v>
+        <v>0.01902438388712989</v>
       </c>
       <c r="G40">
-        <v>0.2561034172574803</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.06521880248332147</v>
+      </c>
+      <c r="H40">
+        <v>0.09973932939162908</v>
+      </c>
+      <c r="I40">
+        <v>0.02096035484138347</v>
+      </c>
+      <c r="J40">
+        <v>-0.07170944494073186</v>
+      </c>
+      <c r="K40">
+        <v>-0.04233211024049822</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.04719005834920303</v>
+        <v>-0.02957333369620235</v>
       </c>
       <c r="C41">
-        <v>-0.03026501638223453</v>
+        <v>0.01048752543010916</v>
       </c>
       <c r="D41">
-        <v>-0.007918640239196657</v>
+        <v>0.01229867560769371</v>
       </c>
       <c r="E41">
-        <v>0.01873540056640478</v>
+        <v>-0.0103054467539759</v>
       </c>
       <c r="F41">
-        <v>-0.03104537689257444</v>
+        <v>0.009405080877900507</v>
       </c>
       <c r="G41">
-        <v>0.06083384994289983</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.006364278342473288</v>
+      </c>
+      <c r="H41">
+        <v>0.01720132307861958</v>
+      </c>
+      <c r="I41">
+        <v>0.006188237230045376</v>
+      </c>
+      <c r="J41">
+        <v>0.02433243284011787</v>
+      </c>
+      <c r="K41">
+        <v>-0.05478774265665522</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.07363440621504672</v>
+        <v>-0.04606812050990515</v>
       </c>
       <c r="C43">
-        <v>-0.02856750141770184</v>
+        <v>0.01392071203963005</v>
       </c>
       <c r="D43">
-        <v>-0.02169971207275279</v>
+        <v>-0.01105746286557716</v>
       </c>
       <c r="E43">
-        <v>-0.01986635759566676</v>
+        <v>0.005301230896738031</v>
       </c>
       <c r="F43">
-        <v>-0.02817333464919001</v>
+        <v>0.009699959242655393</v>
       </c>
       <c r="G43">
-        <v>0.007544422464929426</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.02984002006771368</v>
+      </c>
+      <c r="H43">
+        <v>0.001192762183752395</v>
+      </c>
+      <c r="I43">
+        <v>0.01235384773087011</v>
+      </c>
+      <c r="J43">
+        <v>0.02929487276483313</v>
+      </c>
+      <c r="K43">
+        <v>-0.04936562384035758</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.07758034647402098</v>
+        <v>-0.1183353186630308</v>
       </c>
       <c r="C44">
-        <v>-0.01260721045981924</v>
+        <v>0.0966501585422109</v>
       </c>
       <c r="D44">
-        <v>-0.1065428605103155</v>
+        <v>-0.0381693694468209</v>
       </c>
       <c r="E44">
-        <v>-0.03958252967384449</v>
+        <v>0.06166962545088212</v>
       </c>
       <c r="F44">
-        <v>-0.05566023213070253</v>
+        <v>0.106038030829686</v>
       </c>
       <c r="G44">
-        <v>0.08960583615523221</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.2045452340589582</v>
+      </c>
+      <c r="H44">
+        <v>0.1550343969348992</v>
+      </c>
+      <c r="I44">
+        <v>-0.05615307468497841</v>
+      </c>
+      <c r="J44">
+        <v>-0.1093550568191261</v>
+      </c>
+      <c r="K44">
+        <v>0.03347744412174607</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,263 +2275,407 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.04964797198435187</v>
+        <v>-0.02594193027093846</v>
       </c>
       <c r="C46">
-        <v>-0.04194680814103958</v>
+        <v>0.003501069683161506</v>
       </c>
       <c r="D46">
-        <v>-0.03457644171774574</v>
+        <v>-0.005800328816124981</v>
       </c>
       <c r="E46">
-        <v>-0.04625476966756711</v>
+        <v>0.03282441113770831</v>
       </c>
       <c r="F46">
-        <v>-0.02638614647701895</v>
+        <v>0.03284794595472027</v>
       </c>
       <c r="G46">
-        <v>0.02574832957985249</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.0418666744974256</v>
+      </c>
+      <c r="H46">
+        <v>0.03471912353544085</v>
+      </c>
+      <c r="I46">
+        <v>0.005390860884507273</v>
+      </c>
+      <c r="J46">
+        <v>0.04810874952343601</v>
+      </c>
+      <c r="K46">
+        <v>-0.08244284381941053</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.04971461726727898</v>
+        <v>-0.04231901841354485</v>
       </c>
       <c r="C47">
-        <v>-6.032405305338683e-05</v>
+        <v>0.008402543613711483</v>
       </c>
       <c r="D47">
-        <v>-0.005077040541749317</v>
+        <v>0.001547348878789021</v>
       </c>
       <c r="E47">
-        <v>-0.06235270696930506</v>
+        <v>0.01282333259915222</v>
       </c>
       <c r="F47">
-        <v>-0.007776979568566541</v>
+        <v>-0.0002945010521292289</v>
       </c>
       <c r="G47">
-        <v>-0.005697641363680854</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.0455889040775196</v>
+      </c>
+      <c r="H47">
+        <v>0.01593147213972489</v>
+      </c>
+      <c r="I47">
+        <v>0.05016366944555732</v>
+      </c>
+      <c r="J47">
+        <v>0.004296925020941343</v>
+      </c>
+      <c r="K47">
+        <v>-0.0497688214028438</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.04438135931405737</v>
+        <v>-0.03687724584858746</v>
       </c>
       <c r="C48">
-        <v>0.0003529706372885841</v>
+        <v>-0.001254193051815924</v>
       </c>
       <c r="D48">
-        <v>0.004396595848954834</v>
+        <v>-0.008649457162401356</v>
       </c>
       <c r="E48">
-        <v>-0.03983213703686361</v>
+        <v>0.002084387592832678</v>
       </c>
       <c r="F48">
-        <v>-0.00503673590181839</v>
+        <v>-0.003395977487053367</v>
       </c>
       <c r="G48">
-        <v>0.04507134541765875</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.04509707979957476</v>
+      </c>
+      <c r="H48">
+        <v>0.04623049612255696</v>
+      </c>
+      <c r="I48">
+        <v>0.02540007689128239</v>
+      </c>
+      <c r="J48">
+        <v>0.01723559816547484</v>
+      </c>
+      <c r="K48">
+        <v>-0.03683861444271062</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0.236402582632191</v>
+        <v>-0.2335579574742425</v>
       </c>
       <c r="C49">
-        <v>-0.06868502344260176</v>
+        <v>0.03712678184374002</v>
       </c>
       <c r="D49">
-        <v>-0.01311371214261187</v>
+        <v>0.05320043231737329</v>
       </c>
       <c r="E49">
-        <v>0.09671760911094762</v>
+        <v>-0.03614615234283367</v>
       </c>
       <c r="F49">
-        <v>0.1203929414494554</v>
+        <v>0.03964638281703924</v>
       </c>
       <c r="G49">
-        <v>-0.1020825964862785</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.2075939504381893</v>
+      </c>
+      <c r="H49">
+        <v>-0.1475259906692542</v>
+      </c>
+      <c r="I49">
+        <v>-0.2001551397575235</v>
+      </c>
+      <c r="J49">
+        <v>-0.08390673038343879</v>
+      </c>
+      <c r="K49">
+        <v>0.1501952522378318</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.05504831367410025</v>
+        <v>-0.04323800238810061</v>
       </c>
       <c r="C50">
-        <v>-0.01477917358230499</v>
+        <v>0.01896692845085029</v>
       </c>
       <c r="D50">
-        <v>-0.0008517951787795269</v>
+        <v>0.01000386448780118</v>
       </c>
       <c r="E50">
-        <v>-0.01729292371174697</v>
+        <v>0.002098972862553055</v>
       </c>
       <c r="F50">
-        <v>-0.05373638508220246</v>
+        <v>-0.0002873638710739721</v>
       </c>
       <c r="G50">
-        <v>-0.0006005041020092957</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.03419194038987151</v>
+      </c>
+      <c r="H50">
+        <v>0.03412027553263325</v>
+      </c>
+      <c r="I50">
+        <v>5.707566886877787e-06</v>
+      </c>
+      <c r="J50">
+        <v>0.03012249668450601</v>
+      </c>
+      <c r="K50">
+        <v>-0.04326503591875075</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.03811407801518968</v>
+        <v>-0.01858892896899484</v>
       </c>
       <c r="C51">
-        <v>-0.007452641631359944</v>
+        <v>-0.005233348655026494</v>
       </c>
       <c r="D51">
-        <v>-0.0136548374770504</v>
+        <v>-0.01273656519001803</v>
       </c>
       <c r="E51">
-        <v>0.00892669266393124</v>
+        <v>0.003850107069177829</v>
       </c>
       <c r="F51">
-        <v>-0.01542947274156129</v>
+        <v>0.01991416681486072</v>
       </c>
       <c r="G51">
-        <v>-0.01094399267807555</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.02671547769350178</v>
+      </c>
+      <c r="H51">
+        <v>-0.005388086908602169</v>
+      </c>
+      <c r="I51">
+        <v>-0.007702899054475061</v>
+      </c>
+      <c r="J51">
+        <v>-0.007769030317938496</v>
+      </c>
+      <c r="K51">
+        <v>0.008501665578383864</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.0770957931626722</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.04357285140247703</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.001062123776662214</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.02353391450046935</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.003606155155757107</v>
       </c>
       <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>0.07355602399912939</v>
+      </c>
+      <c r="H52">
+        <v>-0.047650795213709</v>
+      </c>
+      <c r="I52">
+        <v>0.06818947328197723</v>
+      </c>
+      <c r="J52">
+        <v>0.08784730962454089</v>
+      </c>
+      <c r="K52">
+        <v>0.03289007729515894</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.1618999746784343</v>
+        <v>-0.1615151488743627</v>
       </c>
       <c r="C53">
-        <v>0.006991503940967052</v>
+        <v>0.02573363562948376</v>
       </c>
       <c r="D53">
-        <v>0.01386414090362031</v>
+        <v>-0.009419274885474021</v>
       </c>
       <c r="E53">
-        <v>0.06700671223130111</v>
+        <v>-0.006619066196813119</v>
       </c>
       <c r="F53">
-        <v>-0.2247746780587385</v>
+        <v>0.01555007238627531</v>
       </c>
       <c r="G53">
-        <v>-0.0521987517099942</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.03281762685372688</v>
+      </c>
+      <c r="H53">
+        <v>-0.114527368696518</v>
+      </c>
+      <c r="I53">
+        <v>0.08883657615987164</v>
+      </c>
+      <c r="J53">
+        <v>0.1755510873192883</v>
+      </c>
+      <c r="K53">
+        <v>-0.1022053172379116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.05534434183721976</v>
+        <v>-0.05163736556923707</v>
       </c>
       <c r="C54">
-        <v>-0.006247675908827516</v>
+        <v>0.01773267520493826</v>
       </c>
       <c r="D54">
-        <v>-0.01669800264480833</v>
+        <v>0.003455712012768633</v>
       </c>
       <c r="E54">
-        <v>-0.03811515705156851</v>
+        <v>0.02603185043699702</v>
       </c>
       <c r="F54">
-        <v>-0.01928522050744086</v>
+        <v>0.003794370030610355</v>
       </c>
       <c r="G54">
-        <v>0.07059553739996878</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.04752974214350787</v>
+      </c>
+      <c r="H54">
+        <v>0.1240188873819043</v>
+      </c>
+      <c r="I54">
+        <v>0.06876989756554049</v>
+      </c>
+      <c r="J54">
+        <v>0.0116764105796532</v>
+      </c>
+      <c r="K54">
+        <v>-0.123677611285251</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.09665844114818686</v>
+        <v>-0.08678268289026447</v>
       </c>
       <c r="C55">
-        <v>-0.006058306158054113</v>
+        <v>0.02117104579827287</v>
       </c>
       <c r="D55">
-        <v>0.001103867331518706</v>
+        <v>-0.04889895677321195</v>
       </c>
       <c r="E55">
-        <v>0.01324547514170274</v>
+        <v>-0.02410688212414131</v>
       </c>
       <c r="F55">
-        <v>-0.1689930043770457</v>
+        <v>0.01104582602039451</v>
       </c>
       <c r="G55">
-        <v>0.003931879156856877</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01875028612162636</v>
+      </c>
+      <c r="H55">
+        <v>-0.02125372797875835</v>
+      </c>
+      <c r="I55">
+        <v>0.05281803915669848</v>
+      </c>
+      <c r="J55">
+        <v>0.1338616571848309</v>
+      </c>
+      <c r="K55">
+        <v>-0.08244329277966275</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.1625155922951135</v>
+        <v>-0.1603744462262272</v>
       </c>
       <c r="C56">
-        <v>0.005473769496685008</v>
+        <v>0.03897270985970061</v>
       </c>
       <c r="D56">
-        <v>0.02147166347435314</v>
+        <v>-0.01886859363920117</v>
       </c>
       <c r="E56">
-        <v>0.06375365104866332</v>
+        <v>-0.02718405121907881</v>
       </c>
       <c r="F56">
-        <v>-0.23043415454174</v>
+        <v>0.02620028101586775</v>
       </c>
       <c r="G56">
-        <v>-0.04923312207235007</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.04776626328403798</v>
+      </c>
+      <c r="H56">
+        <v>-0.06388871804631516</v>
+      </c>
+      <c r="I56">
+        <v>0.02363605454378116</v>
+      </c>
+      <c r="J56">
+        <v>0.1775030290905241</v>
+      </c>
+      <c r="K56">
+        <v>-0.1075765916490601</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,1022 +2695,1562 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.01774480114688761</v>
+        <v>-0.03705201548071264</v>
       </c>
       <c r="C58">
-        <v>-0.08119927332567238</v>
+        <v>0.01826463435122957</v>
       </c>
       <c r="D58">
-        <v>-0.01495151206522495</v>
+        <v>-0.001469819916209224</v>
       </c>
       <c r="E58">
-        <v>-0.2484696975521571</v>
+        <v>0.08409128462173579</v>
       </c>
       <c r="F58">
-        <v>0.3478481153271537</v>
+        <v>0.01395569485611473</v>
       </c>
       <c r="G58">
-        <v>0.08925440655945469</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1098860898155891</v>
+      </c>
+      <c r="H58">
+        <v>-0.004131075904043647</v>
+      </c>
+      <c r="I58">
+        <v>0.05666534649452469</v>
+      </c>
+      <c r="J58">
+        <v>-0.07079932153416187</v>
+      </c>
+      <c r="K58">
+        <v>0.0005589891502642127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.1518749059654015</v>
+        <v>-0.1721529086845439</v>
       </c>
       <c r="C59">
-        <v>0.3854103464381125</v>
+        <v>-0.2937017402432567</v>
       </c>
       <c r="D59">
-        <v>-0.05465616178778505</v>
+        <v>-0.04249227786424777</v>
       </c>
       <c r="E59">
-        <v>0.06512099606588168</v>
+        <v>-0.06360240700074192</v>
       </c>
       <c r="F59">
-        <v>-0.03158463438521845</v>
+        <v>0.03175940158625996</v>
       </c>
       <c r="G59">
-        <v>0.03191476531568374</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.02046154110409522</v>
+      </c>
+      <c r="H59">
+        <v>0.03873518325369631</v>
+      </c>
+      <c r="I59">
+        <v>-0.0002881613982777777</v>
+      </c>
+      <c r="J59">
+        <v>0.06037609955099146</v>
+      </c>
+      <c r="K59">
+        <v>0.04514793692443918</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.2719428779950797</v>
+        <v>-0.2806861973241928</v>
       </c>
       <c r="C60">
-        <v>-0.05908757838850004</v>
+        <v>0.1357586424920939</v>
       </c>
       <c r="D60">
-        <v>-0.04417942931488861</v>
+        <v>0.04309016049850521</v>
       </c>
       <c r="E60">
-        <v>0.0719800159629526</v>
+        <v>-0.06997719348531635</v>
       </c>
       <c r="F60">
-        <v>0.07974867667111626</v>
+        <v>0.1091152205599793</v>
       </c>
       <c r="G60">
-        <v>-0.1715718652610271</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.05325928515014601</v>
+      </c>
+      <c r="H60">
+        <v>-0.1812312343843439</v>
+      </c>
+      <c r="I60">
+        <v>-0.2110527379443987</v>
+      </c>
+      <c r="J60">
+        <v>-0.2072574284438804</v>
+      </c>
+      <c r="K60">
+        <v>0.104716981496199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.09521463714313673</v>
+        <v>-0.1105645789090746</v>
       </c>
       <c r="C61">
-        <v>-0.02239983401702031</v>
+        <v>0.05358880380373529</v>
       </c>
       <c r="D61">
-        <v>-0.007541702017349806</v>
+        <v>-0.02996086660167852</v>
       </c>
       <c r="E61">
-        <v>-0.0229029047027733</v>
+        <v>-0.06791220569234209</v>
       </c>
       <c r="F61">
-        <v>-0.02540258291530682</v>
+        <v>0.02278672652774543</v>
       </c>
       <c r="G61">
-        <v>0.06390195763812331</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.1033040838445177</v>
+      </c>
+      <c r="H61">
+        <v>0.1050022120503267</v>
+      </c>
+      <c r="I61">
+        <v>-0.005180384510138583</v>
+      </c>
+      <c r="J61">
+        <v>0.08481025267211706</v>
+      </c>
+      <c r="K61">
+        <v>0.07472361555103064</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0.1448162857929396</v>
+        <v>-0.1544953982860269</v>
       </c>
       <c r="C62">
-        <v>-0.02062034433927851</v>
+        <v>0.03558120489754335</v>
       </c>
       <c r="D62">
-        <v>0.03678125221048759</v>
+        <v>-0.02463541801852395</v>
       </c>
       <c r="E62">
-        <v>0.1204050977524106</v>
+        <v>-0.02992611474281743</v>
       </c>
       <c r="F62">
-        <v>-0.1974775833041954</v>
+        <v>0.0160448320976662</v>
       </c>
       <c r="G62">
-        <v>-0.01932948432113866</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.03260984231800672</v>
+      </c>
+      <c r="H62">
+        <v>-0.08474638685387345</v>
+      </c>
+      <c r="I62">
+        <v>0.04261947175947754</v>
+      </c>
+      <c r="J62">
+        <v>0.1463859154231142</v>
+      </c>
+      <c r="K62">
+        <v>-0.1181092913141187</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.04285522655529065</v>
+        <v>-0.03975510812188771</v>
       </c>
       <c r="C63">
-        <v>-0.01910301791575105</v>
+        <v>0.001848276789464751</v>
       </c>
       <c r="D63">
-        <v>0.003657497895427847</v>
+        <v>-0.01069159411568367</v>
       </c>
       <c r="E63">
-        <v>-0.01268004620739641</v>
+        <v>0.00369351179671137</v>
       </c>
       <c r="F63">
-        <v>-0.01717768866211029</v>
+        <v>-0.02972105509926438</v>
       </c>
       <c r="G63">
-        <v>0.0413732574233661</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.02432897031140025</v>
+      </c>
+      <c r="H63">
+        <v>0.05624596852717277</v>
+      </c>
+      <c r="I63">
+        <v>0.003062612145360173</v>
+      </c>
+      <c r="J63">
+        <v>0.03358991860077497</v>
+      </c>
+      <c r="K63">
+        <v>-0.03871876439588733</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.1097263134696334</v>
+        <v>-0.09931962425673899</v>
       </c>
       <c r="C64">
-        <v>-0.01378955419306617</v>
+        <v>0.02171776252375958</v>
       </c>
       <c r="D64">
-        <v>-0.04352237348544866</v>
+        <v>0.006849459819236754</v>
       </c>
       <c r="E64">
-        <v>-0.04113839859725605</v>
+        <v>-0.001895334297099971</v>
       </c>
       <c r="F64">
-        <v>0.01249925972557081</v>
+        <v>0.05136984639300991</v>
       </c>
       <c r="G64">
-        <v>0.0524358688414246</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.04384143623669538</v>
+      </c>
+      <c r="H64">
+        <v>0.065439495008991</v>
+      </c>
+      <c r="I64">
+        <v>-0.05138355265523026</v>
+      </c>
+      <c r="J64">
+        <v>-0.0360287885510391</v>
+      </c>
+      <c r="K64">
+        <v>-0.01019295666006836</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.1157691608817302</v>
+        <v>-0.1169634419235726</v>
       </c>
       <c r="C65">
-        <v>-0.02846147552842647</v>
+        <v>0.003201847600262953</v>
       </c>
       <c r="D65">
-        <v>-0.008383611634433037</v>
+        <v>-0.00068426177977196</v>
       </c>
       <c r="E65">
-        <v>-0.0623927053118289</v>
+        <v>0.008599111062776226</v>
       </c>
       <c r="F65">
-        <v>0.3012488127362177</v>
+        <v>-0.04803470939293527</v>
       </c>
       <c r="G65">
-        <v>-0.1824832366528404</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.03017447175815788</v>
+      </c>
+      <c r="H65">
+        <v>0.01759397606217878</v>
+      </c>
+      <c r="I65">
+        <v>-0.01997885889307643</v>
+      </c>
+      <c r="J65">
+        <v>-0.3650847306029391</v>
+      </c>
+      <c r="K65">
+        <v>-0.357973784108138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.1584283219024717</v>
+        <v>-0.1564626334936688</v>
       </c>
       <c r="C66">
-        <v>-0.0485880744827281</v>
+        <v>0.1125754281026458</v>
       </c>
       <c r="D66">
-        <v>-0.002151707189255401</v>
+        <v>-0.03971868065681839</v>
       </c>
       <c r="E66">
-        <v>-0.01946032958679362</v>
+        <v>-0.1135320282080121</v>
       </c>
       <c r="F66">
-        <v>-0.01547224080099533</v>
+        <v>-0.004628372418450704</v>
       </c>
       <c r="G66">
-        <v>0.2915429766782449</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.09521292140737156</v>
+      </c>
+      <c r="H66">
+        <v>0.0936171006806466</v>
+      </c>
+      <c r="I66">
+        <v>-0.1390102209414393</v>
+      </c>
+      <c r="J66">
+        <v>0.1273671871085153</v>
+      </c>
+      <c r="K66">
+        <v>0.1676148827378203</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.1103536366357793</v>
+        <v>-0.07931690351328935</v>
       </c>
       <c r="C67">
-        <v>-0.03485602326624551</v>
+        <v>0.0432447607952932</v>
       </c>
       <c r="D67">
-        <v>-0.02453381499232851</v>
+        <v>-0.07803377688420014</v>
       </c>
       <c r="E67">
-        <v>0.02466818370565269</v>
+        <v>0.003006945405703388</v>
       </c>
       <c r="F67">
-        <v>-0.04349959965576314</v>
+        <v>0.02898175142373466</v>
       </c>
       <c r="G67">
-        <v>0.04888940898677175</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.0658833053754809</v>
+      </c>
+      <c r="H67">
+        <v>-0.01143599363994836</v>
+      </c>
+      <c r="I67">
+        <v>-0.005640757862999335</v>
+      </c>
+      <c r="J67">
+        <v>-0.01061682674768493</v>
+      </c>
+      <c r="K67">
+        <v>-0.01075493857170621</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.03972569556887957</v>
+        <v>-0.07840169106187929</v>
       </c>
       <c r="C68">
-        <v>0.2930894069688081</v>
+        <v>-0.2884949963099966</v>
       </c>
       <c r="D68">
-        <v>-0.006949811374024705</v>
+        <v>-0.01540724228240402</v>
       </c>
       <c r="E68">
-        <v>0.001569630805455742</v>
+        <v>-0.02566062080838683</v>
       </c>
       <c r="F68">
-        <v>-0.0001379865322661188</v>
+        <v>-0.01606983296487269</v>
       </c>
       <c r="G68">
-        <v>-0.0215256981229458</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.03113510587957813</v>
+      </c>
+      <c r="H68">
+        <v>0.0441323746616681</v>
+      </c>
+      <c r="I68">
+        <v>-0.01191302091808236</v>
+      </c>
+      <c r="J68">
+        <v>-0.009607790600513214</v>
+      </c>
+      <c r="K68">
+        <v>-0.01077155092267522</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.04917758014558828</v>
+        <v>-0.03885030170972783</v>
       </c>
       <c r="C69">
-        <v>-0.01254752709569034</v>
+        <v>0.004538105442662228</v>
       </c>
       <c r="D69">
-        <v>0.004205646225427487</v>
+        <v>-0.02518127462808009</v>
       </c>
       <c r="E69">
-        <v>0.002736872062670798</v>
+        <v>-0.002678855709281986</v>
       </c>
       <c r="F69">
-        <v>-0.002324880933833603</v>
+        <v>0.01104708513613954</v>
       </c>
       <c r="G69">
-        <v>0.01214156379410805</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02240800155765348</v>
+      </c>
+      <c r="H69">
+        <v>-0.009199894792958786</v>
+      </c>
+      <c r="I69">
+        <v>0.01655262424362872</v>
+      </c>
+      <c r="J69">
+        <v>0.01106460884796759</v>
+      </c>
+      <c r="K69">
+        <v>-0.02642758268174583</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>0.07969831111020455</v>
+        <v>-0.04272719945592812</v>
       </c>
       <c r="C70">
-        <v>-0.01353082890886106</v>
+        <v>-0.00147552891009891</v>
       </c>
       <c r="D70">
-        <v>-0.03146859820713854</v>
+        <v>-0.03485080303011905</v>
       </c>
       <c r="E70">
-        <v>0.02601166082939723</v>
+        <v>-0.03198495410936238</v>
       </c>
       <c r="F70">
-        <v>0.01258955774138288</v>
+        <v>0.03427611594714723</v>
       </c>
       <c r="G70">
-        <v>-0.008325635332928872</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>0.02620419482750702</v>
+      </c>
+      <c r="H70">
+        <v>0.002237195782352277</v>
+      </c>
+      <c r="I70">
+        <v>0.109325947168363</v>
+      </c>
+      <c r="J70">
+        <v>-0.1029765793120312</v>
+      </c>
+      <c r="K70">
+        <v>-0.1208882097627487</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.04990493608369064</v>
+        <v>-0.09173455810360188</v>
       </c>
       <c r="C71">
-        <v>0.2994667498177002</v>
+        <v>-0.3012633350810799</v>
       </c>
       <c r="D71">
-        <v>-0.02517892290709938</v>
+        <v>-0.01786133598411384</v>
       </c>
       <c r="E71">
-        <v>-0.001858496642976778</v>
+        <v>-0.02236480588658523</v>
       </c>
       <c r="F71">
-        <v>0.006353237645453543</v>
+        <v>0.01397776808226094</v>
       </c>
       <c r="G71">
-        <v>0.008496165797708243</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.03914899080908684</v>
+      </c>
+      <c r="H71">
+        <v>0.04277521762972884</v>
+      </c>
+      <c r="I71">
+        <v>-0.03270161473426571</v>
+      </c>
+      <c r="J71">
+        <v>-0.01396178626846106</v>
+      </c>
+      <c r="K71">
+        <v>0.005445944156146233</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.1414269662361817</v>
+        <v>-0.1416651604383823</v>
       </c>
       <c r="C72">
-        <v>0.02270663145188877</v>
+        <v>-0.01398648294791184</v>
       </c>
       <c r="D72">
-        <v>0.1966168237867818</v>
+        <v>-0.006459246879785484</v>
       </c>
       <c r="E72">
-        <v>0.02955625111391053</v>
+        <v>0.005164686877516244</v>
       </c>
       <c r="F72">
-        <v>0.03826373469933663</v>
+        <v>-0.07869389818872279</v>
       </c>
       <c r="G72">
-        <v>0.0520622794474063</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.02489298485861808</v>
+      </c>
+      <c r="H72">
+        <v>-0.0127163902350365</v>
+      </c>
+      <c r="I72">
+        <v>-0.03633270325263672</v>
+      </c>
+      <c r="J72">
+        <v>0.009143049094910025</v>
+      </c>
+      <c r="K72">
+        <v>-0.1459447929765179</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.282632126179182</v>
+        <v>-0.2460990642308514</v>
       </c>
       <c r="C73">
-        <v>-0.1500892119198015</v>
+        <v>0.09331756288097527</v>
       </c>
       <c r="D73">
-        <v>-0.05728346364087324</v>
+        <v>-0.02461778429030686</v>
       </c>
       <c r="E73">
-        <v>0.1503188968027906</v>
+        <v>-0.09618536529851968</v>
       </c>
       <c r="F73">
-        <v>0.3120460156413557</v>
+        <v>0.1326942819982099</v>
       </c>
       <c r="G73">
-        <v>-0.2979489320616051</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.2872929547581262</v>
+      </c>
+      <c r="H73">
+        <v>-0.2868300859952111</v>
+      </c>
+      <c r="I73">
+        <v>-0.150244799103889</v>
+      </c>
+      <c r="J73">
+        <v>-0.2328102604164465</v>
+      </c>
+      <c r="K73">
+        <v>0.1806788772297068</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.1018567543166873</v>
+        <v>-0.1125716158299621</v>
       </c>
       <c r="C74">
-        <v>-0.02994332249340124</v>
+        <v>0.04098239409784604</v>
       </c>
       <c r="D74">
-        <v>0.002263937581859563</v>
+        <v>-0.0194014910217281</v>
       </c>
       <c r="E74">
-        <v>0.02579284277211655</v>
+        <v>-0.002062553152382126</v>
       </c>
       <c r="F74">
-        <v>-0.1133028998373947</v>
+        <v>0.005243890704348407</v>
       </c>
       <c r="G74">
-        <v>-0.03571054320493304</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.05857051695418809</v>
+      </c>
+      <c r="H74">
+        <v>-0.07867833049718413</v>
+      </c>
+      <c r="I74">
+        <v>0.00028637170003734</v>
+      </c>
+      <c r="J74">
+        <v>0.1255426875602013</v>
+      </c>
+      <c r="K74">
+        <v>-0.0940348808480987</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.09296189980640479</v>
+        <v>-0.1149249576629457</v>
       </c>
       <c r="C75">
-        <v>-0.01752870944530824</v>
+        <v>0.04240430930474601</v>
       </c>
       <c r="D75">
-        <v>0.03833246682716775</v>
+        <v>-0.007764425881754961</v>
       </c>
       <c r="E75">
-        <v>0.03666050963937077</v>
+        <v>-0.002603143839238608</v>
       </c>
       <c r="F75">
-        <v>-0.1132174214137051</v>
+        <v>-0.0160057309092506</v>
       </c>
       <c r="G75">
-        <v>-0.04715235722487961</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.0004740700697000896</v>
+      </c>
+      <c r="H75">
+        <v>-0.05004022835729639</v>
+      </c>
+      <c r="I75">
+        <v>0.04156466463368057</v>
+      </c>
+      <c r="J75">
+        <v>0.1339570251534873</v>
+      </c>
+      <c r="K75">
+        <v>-0.05331460220323068</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.1381093470840137</v>
+        <v>-0.05133416074499343</v>
       </c>
       <c r="C76">
-        <v>-0.02564278723050641</v>
+        <v>0.009738723893463679</v>
       </c>
       <c r="D76">
-        <v>-0.005590522177597381</v>
+        <v>-0.02635368461043259</v>
       </c>
       <c r="E76">
-        <v>0.01048647257744654</v>
+        <v>0.005382060518803618</v>
       </c>
       <c r="F76">
-        <v>-0.2559365916045282</v>
+        <v>0.03207809798337907</v>
       </c>
       <c r="G76">
-        <v>-0.09369095367751853</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.03877571915133248</v>
+      </c>
+      <c r="H76">
+        <v>-0.04433998969929579</v>
+      </c>
+      <c r="I76">
+        <v>0.02930067754693005</v>
+      </c>
+      <c r="J76">
+        <v>0.09816319224496281</v>
+      </c>
+      <c r="K76">
+        <v>-0.09436498169424168</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.08318850967853073</v>
+        <v>-0.07727085952366787</v>
       </c>
       <c r="C77">
-        <v>0.008442255244698958</v>
+        <v>0.07680652812108077</v>
       </c>
       <c r="D77">
-        <v>-0.06059225708319137</v>
+        <v>0.006530847385230658</v>
       </c>
       <c r="E77">
-        <v>-0.09804142282319053</v>
+        <v>0.003001864319666892</v>
       </c>
       <c r="F77">
-        <v>0.2528950834420408</v>
+        <v>0.04957661887217007</v>
       </c>
       <c r="G77">
-        <v>0.1566831954668364</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.05519372966914921</v>
+      </c>
+      <c r="H77">
+        <v>0.280242705543054</v>
+      </c>
+      <c r="I77">
+        <v>-0.1521394801209509</v>
+      </c>
+      <c r="J77">
+        <v>-0.2574429807745472</v>
+      </c>
+      <c r="K77">
+        <v>0.002619295059714499</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.2216836796951337</v>
+        <v>-0.1544385537585277</v>
       </c>
       <c r="C78">
-        <v>-0.05574357053972696</v>
+        <v>0.06517583893448788</v>
       </c>
       <c r="D78">
-        <v>-0.08187479127366544</v>
+        <v>-0.08924617885054782</v>
       </c>
       <c r="E78">
-        <v>-0.1824092201271833</v>
+        <v>0.2695537195740996</v>
       </c>
       <c r="F78">
-        <v>0.04390957680783743</v>
+        <v>-0.03160511772519506</v>
       </c>
       <c r="G78">
-        <v>0.1466977199298473</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.6688821703606564</v>
+      </c>
+      <c r="H78">
+        <v>0.4631347796266245</v>
+      </c>
+      <c r="I78">
+        <v>0.3169417281216159</v>
+      </c>
+      <c r="J78">
+        <v>0.1256651825457245</v>
+      </c>
+      <c r="K78">
+        <v>0.1420573025862598</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.1366091172205812</v>
+        <v>-0.134958764975976</v>
       </c>
       <c r="C79">
-        <v>-0.009179652779208802</v>
+        <v>0.03787964843586573</v>
       </c>
       <c r="D79">
-        <v>0.007640159109758638</v>
+        <v>0.01185040101394024</v>
       </c>
       <c r="E79">
-        <v>0.02087004286099168</v>
+        <v>-0.008438935400034504</v>
       </c>
       <c r="F79">
-        <v>-0.1457317026103996</v>
+        <v>0.009019335131636861</v>
       </c>
       <c r="G79">
-        <v>0.000750308291493088</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.02471838820030728</v>
+      </c>
+      <c r="H79">
+        <v>-0.03445449600604407</v>
+      </c>
+      <c r="I79">
+        <v>-0.009442792391126191</v>
+      </c>
+      <c r="J79">
+        <v>0.1304168023061533</v>
+      </c>
+      <c r="K79">
+        <v>-0.1158528981133786</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.03447322766889828</v>
+        <v>-0.06885683038086783</v>
       </c>
       <c r="C80">
-        <v>-0.007101123837363192</v>
+        <v>0.05241251655228787</v>
       </c>
       <c r="D80">
-        <v>-0.0215834022650074</v>
+        <v>-0.05227754875058405</v>
       </c>
       <c r="E80">
-        <v>0.04083762350142803</v>
+        <v>-0.0585576518668213</v>
       </c>
       <c r="F80">
-        <v>0.03028584178434402</v>
+        <v>0.004638481761904636</v>
       </c>
       <c r="G80">
-        <v>0.06450824935987702</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.08387678491508557</v>
+      </c>
+      <c r="H80">
+        <v>0.008360217485614042</v>
+      </c>
+      <c r="I80">
+        <v>0.3033095888523661</v>
+      </c>
+      <c r="J80">
+        <v>-0.04282756506870838</v>
+      </c>
+      <c r="K80">
+        <v>0.1367963584488832</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.1121088666837912</v>
+        <v>-0.1352508015279915</v>
       </c>
       <c r="C81">
-        <v>-0.000834038135728185</v>
+        <v>0.04467479570540377</v>
       </c>
       <c r="D81">
-        <v>-0.01183082459503853</v>
+        <v>-0.004246461853420433</v>
       </c>
       <c r="E81">
-        <v>0.01404105923386322</v>
+        <v>-0.002871821119232741</v>
       </c>
       <c r="F81">
-        <v>-0.1309186225335652</v>
+        <v>0.01463353246824012</v>
       </c>
       <c r="G81">
-        <v>-0.02955886162546158</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.05461222665071912</v>
+      </c>
+      <c r="H81">
+        <v>-0.03885807011371718</v>
+      </c>
+      <c r="I81">
+        <v>0.03605965276706284</v>
+      </c>
+      <c r="J81">
+        <v>0.1554511650536348</v>
+      </c>
+      <c r="K81">
+        <v>-0.05638090274374093</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.1105334144660272</v>
+        <v>-0.1490178900324193</v>
       </c>
       <c r="C82">
-        <v>-0.02022975616542078</v>
+        <v>0.04315691304534033</v>
       </c>
       <c r="D82">
-        <v>-0.03452490507363793</v>
+        <v>-0.01772097021296672</v>
       </c>
       <c r="E82">
-        <v>0.06903046268429125</v>
+        <v>-0.05004949391487822</v>
       </c>
       <c r="F82">
-        <v>-0.2465182734825902</v>
+        <v>0.03346263185677593</v>
       </c>
       <c r="G82">
-        <v>0.01144135055137177</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.07289733999967681</v>
+      </c>
+      <c r="H82">
+        <v>-0.1335124914873993</v>
+      </c>
+      <c r="I82">
+        <v>0.07315737765411602</v>
+      </c>
+      <c r="J82">
+        <v>0.2085037554650473</v>
+      </c>
+      <c r="K82">
+        <v>-0.0166409307210548</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.110798889624418</v>
+        <v>-0.08926800074056197</v>
       </c>
       <c r="C83">
-        <v>-0.04619894618469685</v>
+        <v>0.06528891203385317</v>
       </c>
       <c r="D83">
-        <v>-0.06594781224214458</v>
+        <v>0.01543903198094722</v>
       </c>
       <c r="E83">
-        <v>0.03155439785067357</v>
+        <v>0.009393503201398435</v>
       </c>
       <c r="F83">
-        <v>0.05157068578746572</v>
+        <v>0.00270532508199226</v>
       </c>
       <c r="G83">
-        <v>0.07332322968492512</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.1091504057457946</v>
+      </c>
+      <c r="H83">
+        <v>0.003538652998443781</v>
+      </c>
+      <c r="I83">
+        <v>0.3856879501176363</v>
+      </c>
+      <c r="J83">
+        <v>-0.2839557488973684</v>
+      </c>
+      <c r="K83">
+        <v>-0.03910014891731607</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.05125067849119092</v>
+        <v>-0.06657284741494872</v>
       </c>
       <c r="C84">
-        <v>-0.02432182196413285</v>
+        <v>0.0069267316158616</v>
       </c>
       <c r="D84">
-        <v>0.05784492400334916</v>
+        <v>0.01930282207259199</v>
       </c>
       <c r="E84">
-        <v>-0.03118443627857365</v>
+        <v>-0.04189364787901086</v>
       </c>
       <c r="F84">
-        <v>-0.06566060349298822</v>
+        <v>0.002016332934109876</v>
       </c>
       <c r="G84">
-        <v>-0.0308917625781696</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.007435854797025646</v>
+      </c>
+      <c r="H84">
+        <v>-0.03686789240881667</v>
+      </c>
+      <c r="I84">
+        <v>-0.02540485792282391</v>
+      </c>
+      <c r="J84">
+        <v>0.009151112554730794</v>
+      </c>
+      <c r="K84">
+        <v>0.4578307497157427</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.1017084304237672</v>
+        <v>-0.1192593808840604</v>
       </c>
       <c r="C85">
-        <v>-0.0171247450836493</v>
+        <v>0.02989403408717689</v>
       </c>
       <c r="D85">
-        <v>-0.0185977524307541</v>
+        <v>-0.002776780899072323</v>
       </c>
       <c r="E85">
-        <v>0.02684447061925496</v>
+        <v>-0.01373267773104452</v>
       </c>
       <c r="F85">
-        <v>-0.1866840944860381</v>
+        <v>0.0334967661984352</v>
       </c>
       <c r="G85">
-        <v>-0.007953416353458266</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.03555969600839161</v>
+      </c>
+      <c r="H85">
+        <v>-0.03174000110859734</v>
+      </c>
+      <c r="I85">
+        <v>0.04018546423585539</v>
+      </c>
+      <c r="J85">
+        <v>0.1462205316948608</v>
+      </c>
+      <c r="K85">
+        <v>-0.08956935151314674</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.06649801992468475</v>
+        <v>-0.1288671993191441</v>
       </c>
       <c r="C86">
-        <v>-0.02230145459086776</v>
+        <v>0.01423832484062173</v>
       </c>
       <c r="D86">
-        <v>-0.08861517199045883</v>
+        <v>0.9354308778162975</v>
       </c>
       <c r="E86">
-        <v>-0.05197777410156805</v>
+        <v>0.1122677742169015</v>
       </c>
       <c r="F86">
-        <v>0.01609312115606271</v>
+        <v>-0.1319475584651994</v>
       </c>
       <c r="G86">
-        <v>0.07761510199440108</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.0698617281041036</v>
+      </c>
+      <c r="H86">
+        <v>0.03032047016073825</v>
+      </c>
+      <c r="I86">
+        <v>0.1161736424882573</v>
+      </c>
+      <c r="J86">
+        <v>0.01034684704977896</v>
+      </c>
+      <c r="K86">
+        <v>0.09864606163840606</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.1084664016833989</v>
+        <v>-0.1153353666913446</v>
       </c>
       <c r="C87">
-        <v>-0.05498940585928234</v>
+        <v>0.09406696553380242</v>
       </c>
       <c r="D87">
-        <v>-0.0202408730823844</v>
+        <v>-0.005159818927827515</v>
       </c>
       <c r="E87">
-        <v>-0.05793176099144819</v>
+        <v>0.004291673091982902</v>
       </c>
       <c r="F87">
-        <v>0.02837787869902784</v>
+        <v>0.03159397198155386</v>
       </c>
       <c r="G87">
-        <v>0.1225389805726174</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.04034230493481084</v>
+      </c>
+      <c r="H87">
+        <v>0.1739308588773078</v>
+      </c>
+      <c r="I87">
+        <v>-0.07413636068800859</v>
+      </c>
+      <c r="J87">
+        <v>-0.1527842237266488</v>
+      </c>
+      <c r="K87">
+        <v>-0.1638288821586321</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.0694800815604717</v>
+        <v>-0.05630250204003687</v>
       </c>
       <c r="C88">
-        <v>-0.04386450146366058</v>
+        <v>0.03086496863126225</v>
       </c>
       <c r="D88">
-        <v>-0.02470985180823914</v>
+        <v>-0.01164089849573655</v>
       </c>
       <c r="E88">
-        <v>-0.01444089366281484</v>
+        <v>-0.04370290325409332</v>
       </c>
       <c r="F88">
-        <v>-0.02182075235085579</v>
+        <v>0.01113132418105528</v>
       </c>
       <c r="G88">
-        <v>0.05356613206293988</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.0114943414915457</v>
+      </c>
+      <c r="H88">
+        <v>0.02430287828191508</v>
+      </c>
+      <c r="I88">
+        <v>0.004755735836014966</v>
+      </c>
+      <c r="J88">
+        <v>0.03311057795454461</v>
+      </c>
+      <c r="K88">
+        <v>-0.04426666276643738</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.09411387617209598</v>
+        <v>-0.1450853020308162</v>
       </c>
       <c r="C89">
-        <v>0.3825970883865582</v>
+        <v>-0.3725107118822141</v>
       </c>
       <c r="D89">
-        <v>-0.08479251705261416</v>
+        <v>-0.01896065519756293</v>
       </c>
       <c r="E89">
-        <v>-0.02373800445124464</v>
+        <v>0.02788485225608348</v>
       </c>
       <c r="F89">
-        <v>0.01926426515549807</v>
+        <v>0.06135587330002461</v>
       </c>
       <c r="G89">
-        <v>-0.00430843880694238</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.01308432886503024</v>
+      </c>
+      <c r="H89">
+        <v>0.02854584745781594</v>
+      </c>
+      <c r="I89">
+        <v>0.04740010712057359</v>
+      </c>
+      <c r="J89">
+        <v>-0.03007729126233077</v>
+      </c>
+      <c r="K89">
+        <v>0.08206690379275951</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.07360825971105948</v>
+        <v>-0.1068434117485872</v>
       </c>
       <c r="C90">
-        <v>0.2917363878812896</v>
+        <v>-0.293437106104537</v>
       </c>
       <c r="D90">
-        <v>-0.03456355264728085</v>
+        <v>-0.004972797220825871</v>
       </c>
       <c r="E90">
-        <v>-0.04907014674895455</v>
+        <v>-0.02567755871916583</v>
       </c>
       <c r="F90">
-        <v>0.04292392388705015</v>
+        <v>0.01922555923122133</v>
       </c>
       <c r="G90">
-        <v>0.03249565310204003</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.03930546935098275</v>
+      </c>
+      <c r="H90">
+        <v>0.0475246451107189</v>
+      </c>
+      <c r="I90">
+        <v>-0.01118225852943778</v>
+      </c>
+      <c r="J90">
+        <v>-0.04921717620828731</v>
+      </c>
+      <c r="K90">
+        <v>0.03414313748170873</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.0811990572805672</v>
+        <v>-0.08559683481634263</v>
       </c>
       <c r="C91">
-        <v>-0.01970213218069292</v>
+        <v>0.03449103854838071</v>
       </c>
       <c r="D91">
-        <v>-0.007864990991584896</v>
+        <v>0.01644407965912121</v>
       </c>
       <c r="E91">
-        <v>0.02314494876925347</v>
+        <v>-0.003677131941537133</v>
       </c>
       <c r="F91">
-        <v>-0.08792488357216556</v>
+        <v>0.02133432598922312</v>
       </c>
       <c r="G91">
-        <v>-0.06736341345110372</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.01658963474968523</v>
+      </c>
+      <c r="H91">
+        <v>-0.05530478708000156</v>
+      </c>
+      <c r="I91">
+        <v>0.02827989599145836</v>
+      </c>
+      <c r="J91">
+        <v>0.08297363132888533</v>
+      </c>
+      <c r="K91">
+        <v>-0.0494681816893774</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.06707988217879921</v>
+        <v>-0.1186090358303943</v>
       </c>
       <c r="C92">
-        <v>0.3519722672045296</v>
+        <v>-0.3393560873242453</v>
       </c>
       <c r="D92">
-        <v>-0.04056269668726684</v>
+        <v>-0.01830225061008578</v>
       </c>
       <c r="E92">
-        <v>-0.03518572294021776</v>
+        <v>0.01885756082603436</v>
       </c>
       <c r="F92">
-        <v>0.05981193557207928</v>
+        <v>0.01973643244180832</v>
       </c>
       <c r="G92">
-        <v>-0.01717576479866614</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.02742292057194707</v>
+      </c>
+      <c r="H92">
+        <v>0.06270857883444703</v>
+      </c>
+      <c r="I92">
+        <v>0.03523746658165059</v>
+      </c>
+      <c r="J92">
+        <v>0.02162446686687887</v>
+      </c>
+      <c r="K92">
+        <v>0.0527559301901671</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.08460473127563153</v>
+        <v>-0.1134861858713748</v>
       </c>
       <c r="C93">
-        <v>0.3014778109895782</v>
+        <v>-0.3217998237919428</v>
       </c>
       <c r="D93">
-        <v>-0.02263820521891181</v>
+        <v>0.007260816800190677</v>
       </c>
       <c r="E93">
-        <v>-0.02455126748420174</v>
+        <v>-0.04834090761783454</v>
       </c>
       <c r="F93">
-        <v>0.04017392813438875</v>
+        <v>0.0238802758100994</v>
       </c>
       <c r="G93">
-        <v>-0.02308381852981994</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03726833629103589</v>
+      </c>
+      <c r="H93">
+        <v>0.01017064523065956</v>
+      </c>
+      <c r="I93">
+        <v>-0.02083486675338432</v>
+      </c>
+      <c r="J93">
+        <v>-0.02881268013424563</v>
+      </c>
+      <c r="K93">
+        <v>0.02436258903378112</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.0936119634138817</v>
+        <v>-0.1315717005818073</v>
       </c>
       <c r="C94">
-        <v>-0.04234569532895707</v>
+        <v>0.05061801291458245</v>
       </c>
       <c r="D94">
-        <v>0.02078146379143942</v>
+        <v>-0.02958810164682376</v>
       </c>
       <c r="E94">
-        <v>0.008601385072548593</v>
+        <v>0.007617522572577632</v>
       </c>
       <c r="F94">
-        <v>-0.1303707727021403</v>
+        <v>0.01299146240650486</v>
       </c>
       <c r="G94">
-        <v>-0.058538477947012</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.01675006623158003</v>
+      </c>
+      <c r="H94">
+        <v>-0.08575916903301824</v>
+      </c>
+      <c r="I94">
+        <v>0.01058047028545293</v>
+      </c>
+      <c r="J94">
+        <v>0.1240098287239977</v>
+      </c>
+      <c r="K94">
+        <v>-0.01840029470196392</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.1284371091139802</v>
+        <v>-0.1193589223887542</v>
       </c>
       <c r="C95">
-        <v>-0.07990495940212682</v>
+        <v>0.05662016687905536</v>
       </c>
       <c r="D95">
-        <v>-0.07586182970394359</v>
+        <v>-0.01315120372748393</v>
       </c>
       <c r="E95">
-        <v>-0.06767581808061451</v>
+        <v>0.0316097442691959</v>
       </c>
       <c r="F95">
-        <v>0.08435268656075677</v>
+        <v>0.05592584345473053</v>
       </c>
       <c r="G95">
-        <v>0.137953718731242</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.006899213274549796</v>
+      </c>
+      <c r="H95">
+        <v>0.1317206208299436</v>
+      </c>
+      <c r="I95">
+        <v>-0.01712565021073874</v>
+      </c>
+      <c r="J95">
+        <v>-0.02966398459999167</v>
+      </c>
+      <c r="K95">
+        <v>0.03560284894529907</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.01049841511424754</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.001553721202378173</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.0008808515430254711</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.008571740385785669</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.0002685128490340236</v>
       </c>
       <c r="G96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>-0.007726058629357668</v>
+      </c>
+      <c r="H96">
+        <v>0.02381186195109499</v>
+      </c>
+      <c r="I96">
+        <v>-0.01356602713802502</v>
+      </c>
+      <c r="J96">
+        <v>-0.01442824299526549</v>
+      </c>
+      <c r="K96">
+        <v>-0.0251298561113448</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.178258297128436</v>
+        <v>-0.1792996676079021</v>
       </c>
       <c r="C97">
-        <v>0.07030628439063764</v>
+        <v>-0.0004509043792306038</v>
       </c>
       <c r="D97">
-        <v>0.9166008306328919</v>
+        <v>-0.1636366809565349</v>
       </c>
       <c r="E97">
-        <v>-0.08208537065808974</v>
+        <v>0.1886804812478632</v>
       </c>
       <c r="F97">
-        <v>0.07349082702685139</v>
+        <v>-0.9098507511735234</v>
       </c>
       <c r="G97">
-        <v>0.09375524031842083</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.04976602311693138</v>
+      </c>
+      <c r="H97">
+        <v>-0.08709462050859118</v>
+      </c>
+      <c r="I97">
+        <v>-0.1174597563521791</v>
+      </c>
+      <c r="J97">
+        <v>-0.02838582856561588</v>
+      </c>
+      <c r="K97">
+        <v>0.04554964674410813</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.3240552420904476</v>
+        <v>-0.2690994606856061</v>
       </c>
       <c r="C98">
-        <v>-0.05788331715087789</v>
+        <v>0.02727165979796359</v>
       </c>
       <c r="D98">
-        <v>-0.03189186225879705</v>
+        <v>0.02215263749500868</v>
       </c>
       <c r="E98">
-        <v>0.2482398553703372</v>
+        <v>0.02370453075865455</v>
       </c>
       <c r="F98">
-        <v>0.1414426583298859</v>
+        <v>0.04831374192499156</v>
       </c>
       <c r="G98">
-        <v>-0.2776559514826631</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.2136660851268144</v>
+      </c>
+      <c r="H98">
+        <v>-0.3181802159202388</v>
+      </c>
+      <c r="I98">
+        <v>0.1802184560731682</v>
+      </c>
+      <c r="J98">
+        <v>-0.05644678754140838</v>
+      </c>
+      <c r="K98">
+        <v>-0.1479010983960571</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0.08662730142195499</v>
+        <v>-0.05608937833546809</v>
       </c>
       <c r="C99">
-        <v>-0.02334904961241964</v>
+        <v>0.009204912238794327</v>
       </c>
       <c r="D99">
-        <v>-0.01127668087843156</v>
+        <v>-0.02675100180128982</v>
       </c>
       <c r="E99">
-        <v>0.004767909550533316</v>
+        <v>0.01510190997518556</v>
       </c>
       <c r="F99">
-        <v>0.01010606286574514</v>
+        <v>0.02268417689301121</v>
       </c>
       <c r="G99">
-        <v>0.02935345970553601</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.007327850049589613</v>
+      </c>
+      <c r="H99">
+        <v>-6.813045459854997e-05</v>
+      </c>
+      <c r="I99">
+        <v>0.00148562425923581</v>
+      </c>
+      <c r="J99">
+        <v>0.01302961668369878</v>
+      </c>
+      <c r="K99">
+        <v>0.007117871457793141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.02934323454990608</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.06546220809628515</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.1853990262352813</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.0658110170644965</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.03556040545025412</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>0.2602602674625173</v>
+      </c>
+      <c r="H100">
+        <v>-0.1667219676737439</v>
+      </c>
+      <c r="I100">
+        <v>0.5456088502282066</v>
+      </c>
+      <c r="J100">
+        <v>-0.212167327061801</v>
+      </c>
+      <c r="K100">
+        <v>0.3089882451460956</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.05924107826005194</v>
+        <v>-0.03732322227081712</v>
       </c>
       <c r="C101">
-        <v>-0.003296537853163291</v>
+        <v>0.007195225403164532</v>
       </c>
       <c r="D101">
-        <v>-0.03260917705295224</v>
+        <v>0.0005800891630206485</v>
       </c>
       <c r="E101">
-        <v>-0.03916063913532994</v>
+        <v>-0.01746811720467394</v>
       </c>
       <c r="F101">
-        <v>-0.03101852753571335</v>
+        <v>0.02241037420120913</v>
       </c>
       <c r="G101">
-        <v>0.0427549682224487</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.07368412724814262</v>
+      </c>
+      <c r="H101">
+        <v>0.05102003092742508</v>
+      </c>
+      <c r="I101">
+        <v>0.02030586931416874</v>
+      </c>
+      <c r="J101">
+        <v>0.04427584910352765</v>
+      </c>
+      <c r="K101">
+        <v>-0.09260602298142669</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3046,10 +4270,22 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
